--- a/HallarVariables/datos.xlsx
+++ b/HallarVariables/datos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Emocion</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Subject</t>
-  </si>
-  <si>
-    <t>xx.xx</t>
   </si>
 </sst>
 </file>
@@ -369,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,22 +397,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>741.2975127878796</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
+        <v>834.4271908186108</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.5355625</v>
+        <v>1.937208159252888</v>
       </c>
       <c r="E2">
-        <v>-0.3998132279824318</v>
+        <v>-0.1935584745422751</v>
       </c>
       <c r="F2">
-        <v>0.4586552553256578</v>
+        <v>0.4074651494355602</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -423,59 +420,59 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1298.282937455236</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+        <v>607.1548709408826</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.481375</v>
+        <v>2.000327680838863</v>
       </c>
       <c r="E3">
-        <v>0.7199649862816042</v>
+        <v>0.7045348945087655</v>
       </c>
       <c r="F3">
-        <v>0.2618843629466732</v>
+        <v>0.559988919257316</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>385.115687572183</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+        <v>1096.177700620854</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.2666875</v>
+        <v>1.615548455804047</v>
       </c>
       <c r="E4">
-        <v>-0.6996395869307899</v>
+        <v>-1.048744178652287</v>
       </c>
       <c r="F4">
-        <v>0.8828515975119114</v>
+        <v>0.3101686887148228</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1143.72285332984</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
+        <v>571.1267484472583</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.603375</v>
+        <v>1.841320553780618</v>
       </c>
       <c r="E5">
-        <v>-0.4999985711403752</v>
+        <v>-0.312474234765796</v>
       </c>
       <c r="F5">
-        <v>0.2972748153192204</v>
+        <v>0.5953144392630351</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -483,19 +480,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>705.4963084495488</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
+        <v>539.8955894981212</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1.524</v>
+        <v>1.858032276562628</v>
       </c>
       <c r="E6">
-        <v>0.4997041234885745</v>
+        <v>0.472936599996069</v>
       </c>
       <c r="F6">
-        <v>0.4819302325581395</v>
+        <v>0.6297513938131238</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -503,119 +500,119 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>662.3975461661881</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
+        <v>767.2313690610929</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>2.2233125</v>
+        <v>1.579913164577701</v>
       </c>
       <c r="E7">
-        <v>-0.7999373551860798</v>
+        <v>-0.4870713105920647</v>
       </c>
       <c r="F7">
-        <v>0.5132869256050925</v>
+        <v>0.4431518492473508</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>580.8082212684421</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
+        <v>573.4116651919823</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>3.5435</v>
+        <v>2.035061849758335</v>
       </c>
       <c r="E8">
-        <v>0.6997286028033356</v>
+        <v>0.6503302372111845</v>
       </c>
       <c r="F8">
-        <v>0.5853911627791101</v>
+        <v>0.5929422448811983</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>843.0322779423589</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
+        <v>895.7376860416711</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>3.7375</v>
+        <v>1.502129925452609</v>
       </c>
       <c r="E9">
-        <v>-0.5999195677211797</v>
+        <v>-0.6935219577585749</v>
       </c>
       <c r="F9">
-        <v>0.4033060286017269</v>
+        <v>0.3795754106344284</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>1255.395478581032</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
+        <v>496.1282068910302</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>3.612375</v>
+        <v>2.486974686655198</v>
       </c>
       <c r="E10">
-        <v>0.7998739964760364</v>
+        <v>-0.6466472797378551</v>
       </c>
       <c r="F10">
-        <v>0.2708309897565511</v>
+        <v>0.6853067317631424</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>587.7157601088585</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
+        <v>533.9244357466034</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1.790625</v>
+        <v>2.193741295977718</v>
       </c>
       <c r="E11">
-        <v>-0.0003970091153063238</v>
+        <v>-0.569611353685241</v>
       </c>
       <c r="F11">
-        <v>0.5785109453879953</v>
+        <v>0.6367942301134191</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>1053.784001736919</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
+        <v>571.666706261532</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1.4658125</v>
+        <v>2.338658146964856</v>
       </c>
       <c r="E12">
-        <v>-0.3500351899020333</v>
+        <v>-0.166135290916133</v>
       </c>
       <c r="F12">
-        <v>0.3226467657884241</v>
+        <v>0.5947521453951059</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -623,99 +620,99 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>871.448614013481</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
+        <v>475.5375693669365</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1.6968125</v>
+        <v>2.066724010813468</v>
       </c>
       <c r="E13">
-        <v>0.6000871735340134</v>
+        <v>0.08748424484391998</v>
       </c>
       <c r="F13">
-        <v>0.3901549609840108</v>
+        <v>0.7149803126020684</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>688.6772762982293</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
+        <v>621.7059983389047</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>2.21175</v>
+        <v>2.022077496518391</v>
       </c>
       <c r="E14">
-        <v>0.7999152401540455</v>
+        <v>-0.6321009506933006</v>
       </c>
       <c r="F14">
-        <v>0.4937000416618424</v>
+        <v>0.5468822898740299</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>1154.832777726974</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
+        <v>910.9205744328005</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>3.1656875</v>
+        <v>1.574793151470468</v>
       </c>
       <c r="E15">
-        <v>-0.9122531187165528</v>
+        <v>-0.7051476366160849</v>
       </c>
       <c r="F15">
-        <v>0.2944149201144193</v>
+        <v>0.3732487875923831</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>866.0718539865514</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
+        <v>805.2257403860904</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>2.0821875</v>
+        <v>1.687965921192758</v>
       </c>
       <c r="E16">
-        <v>-0.3496540294233283</v>
+        <v>-0.2468191414144892</v>
       </c>
       <c r="F16">
-        <v>0.3925771267533648</v>
+        <v>0.4222418421907085</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>1255.470336386538</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
+        <v>416.2629935106618</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>3.5335625</v>
+        <v>2.485213402146309</v>
       </c>
       <c r="E17">
-        <v>0.4001041197659179</v>
+        <v>-0.7843713048434156</v>
       </c>
       <c r="F17">
-        <v>0.2708148413753678</v>
+        <v>0.8167913201520075</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -723,79 +720,79 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>711.2947674201864</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
+        <v>662.7097445796769</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>3.6160625</v>
+        <v>1.815843368559024</v>
       </c>
       <c r="E18">
-        <v>0.3998508515863028</v>
+        <v>0.180795575244087</v>
       </c>
       <c r="F18">
-        <v>0.4780015481249144</v>
+        <v>0.513045119346547</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>1052.327615740187</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
+        <v>551.4678247797219</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>3.9341875</v>
+        <v>2.565945768821168</v>
       </c>
       <c r="E19">
-        <v>-1.02024696738982</v>
+        <v>0.1599777681389561</v>
       </c>
       <c r="F19">
-        <v>0.3230932980513397</v>
+        <v>0.6165364228381038</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20">
-        <v>880.1696386212914</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
+        <v>823.7716975581053</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>2.0875625</v>
+        <v>2.163226017858606</v>
       </c>
       <c r="E20">
-        <v>-0.6501729350772723</v>
+        <v>-0.5412364266992837</v>
       </c>
       <c r="F20">
-        <v>0.3862891709518408</v>
+        <v>0.4127357142857143</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>1438.592000722068</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
+        <v>626.2869168283086</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>3.5018125</v>
+        <v>2.517899565822888</v>
       </c>
       <c r="E21">
-        <v>-0.4999873653666049</v>
+        <v>-0.5095172901882159</v>
       </c>
       <c r="F21">
-        <v>0.2363422011448311</v>
+        <v>0.542882169280902</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -803,19 +800,19 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>546.4940221978097</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
+        <v>636.7574397087501</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>2.99475</v>
+        <v>2.434013271073974</v>
       </c>
       <c r="E22">
-        <v>-0.0001183840387550261</v>
+        <v>-0.8460786482359886</v>
       </c>
       <c r="F22">
-        <v>0.6221477018772095</v>
+        <v>0.5339552846928878</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -823,59 +820,59 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>1055.281514976518</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
+        <v>771.6764308246958</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>2.0813125</v>
+        <v>1.585156057999509</v>
       </c>
       <c r="E23">
-        <v>-0.3996898397145984</v>
+        <v>0.2751640941270589</v>
       </c>
       <c r="F23">
-        <v>0.3221889090017518</v>
+        <v>0.4405991765702105</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>528.2827712599624</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
+        <v>874.1406380880956</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>4.06575</v>
+        <v>1.71061685917916</v>
       </c>
       <c r="E24">
-        <v>-0.09961538900701106</v>
+        <v>-0.3278533532400692</v>
       </c>
       <c r="F24">
-        <v>0.6435947157411454</v>
+        <v>0.3889534305871442</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B25">
-        <v>1114.122897835625</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
+        <v>1007.619289178303</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>3.6574375</v>
+        <v>1.567174571966904</v>
       </c>
       <c r="E25">
-        <v>0.4998727294064859</v>
+        <v>-0.5772939458849422</v>
       </c>
       <c r="F25">
-        <v>0.3051727961614543</v>
+        <v>0.3374290306384113</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -883,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>673.5638227471258</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
+        <v>481.3690055125772</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1.515625</v>
+        <v>2.489759973785533</v>
       </c>
       <c r="E26">
-        <v>0.2196620842238661</v>
+        <v>-0.4230344382241603</v>
       </c>
       <c r="F26">
-        <v>0.5047777040835004</v>
+        <v>0.7063188450157006</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -903,59 +900,59 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>606.0530667068588</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
+        <v>695.4886916831113</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>2.452375</v>
+        <v>2.538994019824691</v>
       </c>
       <c r="E27">
-        <v>0.03013115689492407</v>
+        <v>0.760155429104387</v>
       </c>
       <c r="F27">
-        <v>0.5610069788896132</v>
+        <v>0.4888648860374509</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>844.1606341206415</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
+        <v>512.0402699716965</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>2.78375</v>
+        <v>2.033136724830015</v>
       </c>
       <c r="E28">
-        <v>-0.500439942815526</v>
+        <v>0.7856740976751961</v>
       </c>
       <c r="F28">
-        <v>0.4027669453624506</v>
+        <v>0.6640102740723768</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>524.7562097126221</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
+        <v>1064.615656181814</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1.8811875</v>
+        <v>1.456909969689522</v>
       </c>
       <c r="E29">
-        <v>-0.08026060115996558</v>
+        <v>-0.9649930749877274</v>
       </c>
       <c r="F29">
-        <v>0.6479199173006411</v>
+        <v>0.3193640803850205</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -963,139 +960,5439 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>1300.607920710402</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
+        <v>1076.99538814031</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1.8313125</v>
+        <v>1.613500450561153</v>
       </c>
       <c r="E30">
-        <v>-0.7999705782631028</v>
+        <v>0.03612511250295097</v>
       </c>
       <c r="F30">
-        <v>0.2614162151298366</v>
+        <v>0.3156930881450581</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B31">
-        <v>988.1380755560186</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
+        <v>601.6274277106663</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>2.399625</v>
+        <v>1.964282788563939</v>
       </c>
       <c r="E31">
-        <v>-0.5998927458939958</v>
+        <v>-0.4663085338171215</v>
       </c>
       <c r="F31">
-        <v>0.3440814683805037</v>
+        <v>0.5651338092975247</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>488.3558866628846</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
+        <v>801.639528575169</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>3.8371875</v>
+        <v>2.34992217580077</v>
       </c>
       <c r="E32">
-        <v>-0.9002051907818289</v>
+        <v>-0.7500705095770142</v>
       </c>
       <c r="F32">
-        <v>0.6962135796567235</v>
+        <v>0.4241307818294772</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B33">
-        <v>843.5050117840285</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
+        <v>1182.217566814292</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1.886</v>
+        <v>1.649217661997215</v>
       </c>
       <c r="E33">
-        <v>0.79955917971012</v>
+        <v>-0.4935742720544013</v>
       </c>
       <c r="F33">
-        <v>0.4030799998222818</v>
+        <v>0.2875951174674168</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34">
-        <v>851.2408604146783</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
+        <v>549.0882090858987</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1.561</v>
+        <v>2.313959203735561</v>
       </c>
       <c r="E34">
-        <v>-0.4496523572286966</v>
+        <v>-0.7943960874029812</v>
       </c>
       <c r="F34">
-        <v>0.399416916892794</v>
+        <v>0.6192083428016405</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <v>731.9974493034059</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
+        <v>928.1828951522408</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1.8259375</v>
+        <v>1.63258785942492</v>
       </c>
       <c r="E35">
-        <v>0.1799477797939007</v>
+        <v>-0.4617672750910528</v>
       </c>
       <c r="F35">
-        <v>0.4644824928332138</v>
+        <v>0.3663071165992917</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>466.2888869532115</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>2.27267141803883</v>
+      </c>
+      <c r="E36">
+        <v>-0.8521973432476766</v>
+      </c>
+      <c r="F36">
+        <v>0.7291617053573837</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>935.1568764419696</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1.646186614237732</v>
+      </c>
+      <c r="E37">
+        <v>-0.8123865793126441</v>
+      </c>
+      <c r="F37">
+        <v>0.3635753621291993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>1137.838755220606</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1.64622757434259</v>
+      </c>
+      <c r="E38">
+        <v>-0.6858497404576771</v>
+      </c>
+      <c r="F38">
+        <v>0.2988121106264132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>456.1475556190409</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>2.049356926353731</v>
+      </c>
+      <c r="E39">
+        <v>-0.3162108422555446</v>
+      </c>
+      <c r="F39">
+        <v>0.7453728422123927</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>998.9323717608794</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1.496395510772508</v>
+      </c>
+      <c r="E40">
+        <v>-0.3249888562577947</v>
+      </c>
+      <c r="F40">
+        <v>0.3403633815577136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>546.3016626590213</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>2.205333005652494</v>
+      </c>
+      <c r="E41">
+        <v>-0.7653932650613893</v>
+      </c>
+      <c r="F41">
+        <v>0.6223667677398482</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>933.53711432655</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1.509297943802736</v>
+      </c>
+      <c r="E42">
+        <v>-0.8913678482798517</v>
+      </c>
+      <c r="F42">
+        <v>0.364206194678478</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>749.1021005258606</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1.656139919718195</v>
+      </c>
+      <c r="E43">
+        <v>-0.2107784662878193</v>
+      </c>
+      <c r="F43">
+        <v>0.4538767142173599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>1049.60660436276</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1.546162038174818</v>
+      </c>
+      <c r="E44">
+        <v>-0.4913303084854838</v>
+      </c>
+      <c r="F44">
+        <v>0.3239308885698386</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>970.0139953493841</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>2.214221348406652</v>
+      </c>
+      <c r="E45">
+        <v>-1.112836290585761</v>
+      </c>
+      <c r="F45">
+        <v>0.350510406684944</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>885.4426657459086</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>2.095150323584829</v>
+      </c>
+      <c r="E46">
+        <v>2.669295207388151</v>
+      </c>
+      <c r="F46">
+        <v>0.3839887246833532</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>435.5749891153663</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>2.369705906447121</v>
+      </c>
+      <c r="E47">
+        <v>-0.632639212655983</v>
+      </c>
+      <c r="F47">
+        <v>0.7805774171986437</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>903.371269609069</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1.972392889325797</v>
+      </c>
+      <c r="E48">
+        <v>-1.166396743684368</v>
+      </c>
+      <c r="F48">
+        <v>0.3763679579350956</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>888.2162992825688</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1.430613582370771</v>
+      </c>
+      <c r="E49">
+        <v>-0.136382382805954</v>
+      </c>
+      <c r="F49">
+        <v>0.3827896428771069</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>1148.661035044064</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1.432620627508806</v>
+      </c>
+      <c r="E50">
+        <v>-0.9428820574778167</v>
+      </c>
+      <c r="F50">
+        <v>0.295996808133182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>772.2258063158476</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>1.861595805685263</v>
+      </c>
+      <c r="E51">
+        <v>-1.261012149143178</v>
+      </c>
+      <c r="F51">
+        <v>0.440285726298218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>823.2444283381822</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1.455681166543786</v>
+      </c>
+      <c r="E52">
+        <v>-0.1473747170486747</v>
+      </c>
+      <c r="F52">
+        <v>0.4130000620670229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>522.7718690555031</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>2.272958138772835</v>
+      </c>
+      <c r="E53">
+        <v>-0.7727250747227961</v>
+      </c>
+      <c r="F53">
+        <v>0.6503792956845235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
         <v>6</v>
       </c>
-      <c r="B36">
-        <v>619.5279170645274</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36">
-        <v>3.8298125</v>
-      </c>
-      <c r="E36">
-        <v>0.3996168852983238</v>
-      </c>
-      <c r="F36">
-        <v>0.5488049700988488</v>
+      <c r="B54">
+        <v>639.5152196926081</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1.981567952813959</v>
+      </c>
+      <c r="E54">
+        <v>-0.4772614147278413</v>
+      </c>
+      <c r="F54">
+        <v>0.531652710569462</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>968.6687547671984</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>2.149832063570083</v>
+      </c>
+      <c r="E55">
+        <v>-1.826990952062356</v>
+      </c>
+      <c r="F55">
+        <v>0.3509971786812848</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>553.356762639876</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1.877897927418694</v>
+      </c>
+      <c r="E56">
+        <v>-0.2003989797806841</v>
+      </c>
+      <c r="F56">
+        <v>0.6144318149795011</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>803.5874467839385</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>2.052592774637503</v>
+      </c>
+      <c r="E57">
+        <v>-3.571734709410781</v>
+      </c>
+      <c r="F57">
+        <v>0.4231026770773041</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>864.3743889226541</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1.77516998443516</v>
+      </c>
+      <c r="E58">
+        <v>-0.2510958275514634</v>
+      </c>
+      <c r="F58">
+        <v>0.3933480727301186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>430.4834874458784</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>2.191857131154256</v>
+      </c>
+      <c r="E59">
+        <v>0.2676441383386365</v>
+      </c>
+      <c r="F59">
+        <v>0.7898096208457839</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>556.6372428134756</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>2.474277054149259</v>
+      </c>
+      <c r="E60">
+        <v>0.4192068428959968</v>
+      </c>
+      <c r="F60">
+        <v>0.6108107288716417</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>422.7490802897561</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>2.58417301548292</v>
+      </c>
+      <c r="E61">
+        <v>-0.480067307145862</v>
+      </c>
+      <c r="F61">
+        <v>0.8042595853004834</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>849.8872107975538</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>1.447816826411076</v>
+      </c>
+      <c r="E62">
+        <v>0.2837554123659036</v>
+      </c>
+      <c r="F62">
+        <v>0.400053084315666</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>967.9934494836921</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>1.482305234701401</v>
+      </c>
+      <c r="E63">
+        <v>-0.8136276466034014</v>
+      </c>
+      <c r="F63">
+        <v>0.3512420462982979</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>593.6290656819641</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>2.503809289751782</v>
+      </c>
+      <c r="E64">
+        <v>-0.2566581128557526</v>
+      </c>
+      <c r="F64">
+        <v>0.5727482356501635</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>542.9091645612234</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>2.501761284508888</v>
+      </c>
+      <c r="E65">
+        <v>0.2699312118331244</v>
+      </c>
+      <c r="F65">
+        <v>0.6262557757240779</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>508.6191879941043</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>1.866019497009912</v>
+      </c>
+      <c r="E66">
+        <v>-0.1042141514666074</v>
+      </c>
+      <c r="F66">
+        <v>0.6684765498936331</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>533.3158820816107</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>1.88490210534939</v>
+      </c>
+      <c r="E67">
+        <v>-0.1624493935626391</v>
+      </c>
+      <c r="F67">
+        <v>0.6375208603818994</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>855.2357449523191</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>1.728024903743754</v>
+      </c>
+      <c r="E68">
+        <v>-1.234651684680078</v>
+      </c>
+      <c r="F68">
+        <v>0.3975512038718115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>841.211524006707</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>1.64585893339887</v>
+      </c>
+      <c r="E69">
+        <v>-0.6650146888470043</v>
+      </c>
+      <c r="F69">
+        <v>0.4041789612921294</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>416.2147665286244</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>2.66064553125256</v>
+      </c>
+      <c r="E70">
+        <v>-0.01488743921849661</v>
+      </c>
+      <c r="F70">
+        <v>0.8168859621097013</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>523.0419121869293</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>2.704759564184484</v>
+      </c>
+      <c r="E71">
+        <v>-0.4258078448486122</v>
+      </c>
+      <c r="F71">
+        <v>0.6500435090916535</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>542.8677417656564</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>1.754403211272221</v>
+      </c>
+      <c r="E72">
+        <v>0.3659482867272588</v>
+      </c>
+      <c r="F72">
+        <v>0.6263035613318321</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>589.7957747697992</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>2.443147374457279</v>
+      </c>
+      <c r="E73">
+        <v>-0.3951887714558859</v>
+      </c>
+      <c r="F73">
+        <v>0.5764707285885593</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>994.0323827504053</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>1.451257475219137</v>
+      </c>
+      <c r="E74">
+        <v>-0.4350956087533392</v>
+      </c>
+      <c r="F74">
+        <v>0.3420411707908833</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>1126.598745214989</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>2.008069140657</v>
+      </c>
+      <c r="E75">
+        <v>-0.7967960761273489</v>
+      </c>
+      <c r="F75">
+        <v>0.3017933416347963</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>671.0616621483598</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>2.40910952732039</v>
+      </c>
+      <c r="E76">
+        <v>-0.5153879917601704</v>
+      </c>
+      <c r="F76">
+        <v>0.5066598483833994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>374.2582439385068</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>2.428729417547309</v>
+      </c>
+      <c r="E77">
+        <v>-1.306922757473226</v>
+      </c>
+      <c r="F77">
+        <v>0.9084636223961557</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>6</v>
+      </c>
+      <c r="B78">
+        <v>535.191439286671</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>1.866797739002212</v>
+      </c>
+      <c r="E78">
+        <v>1.182085149787336</v>
+      </c>
+      <c r="F78">
+        <v>0.6352866937729207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>638.1007824526206</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>2.075079872204473</v>
+      </c>
+      <c r="E79">
+        <v>-1.088477734590319</v>
+      </c>
+      <c r="F79">
+        <v>0.532831191168842</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>599.9506086185336</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>2.48808060948636</v>
+      </c>
+      <c r="E80">
+        <v>-1.184750961578359</v>
+      </c>
+      <c r="F80">
+        <v>0.5667133179227793</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81">
+        <v>819.1887805048598</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>1.512208333333333</v>
+      </c>
+      <c r="E81">
+        <v>-0.7031494603029464</v>
+      </c>
+      <c r="F81">
+        <v>0.4150447468170409</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>795.2658767685476</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>1.60088473826493</v>
+      </c>
+      <c r="E82">
+        <v>0.1807889643738644</v>
+      </c>
+      <c r="F82">
+        <v>0.4275299744804125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>6</v>
+      </c>
+      <c r="B83">
+        <v>561.911331553475</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>2.196649463422626</v>
+      </c>
+      <c r="E83">
+        <v>0.2308180509711247</v>
+      </c>
+      <c r="F83">
+        <v>0.6050776713472337</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>6</v>
+      </c>
+      <c r="B84">
+        <v>626.0809245836493</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>1.844228721225526</v>
+      </c>
+      <c r="E84">
+        <v>-0.6479672106130097</v>
+      </c>
+      <c r="F84">
+        <v>0.5430607875908433</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>6</v>
+      </c>
+      <c r="B85">
+        <v>520.1631222610119</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>1.961456541328746</v>
+      </c>
+      <c r="E85">
+        <v>-0.8519664631081554</v>
+      </c>
+      <c r="F85">
+        <v>0.6536411088162298</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>6</v>
+      </c>
+      <c r="B86">
+        <v>679.5260780625764</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>2.154952076677316</v>
+      </c>
+      <c r="E86">
+        <v>-1.5071925004894</v>
+      </c>
+      <c r="F86">
+        <v>0.5003487150476806</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>727.3425288198514</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>2.559269271729335</v>
+      </c>
+      <c r="E87">
+        <v>-0.7537241072100089</v>
+      </c>
+      <c r="F87">
+        <v>0.4674551349990032</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>4</v>
+      </c>
+      <c r="B88">
+        <v>512.3865581590876</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>2.130744654706316</v>
+      </c>
+      <c r="E88">
+        <v>-0.4146502676381638</v>
+      </c>
+      <c r="F88">
+        <v>0.663561513443207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>6</v>
+      </c>
+      <c r="B89">
+        <v>619.7696707132727</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>2.403252232325715</v>
+      </c>
+      <c r="E89">
+        <v>-0.6366570192033676</v>
+      </c>
+      <c r="F89">
+        <v>0.548590897661554</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>980.4886544039746</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>1.675473089211108</v>
+      </c>
+      <c r="E90">
+        <v>-0.6974533564525076</v>
+      </c>
+      <c r="F90">
+        <v>0.3467658687052134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>794.7000120677336</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>2.410051609732121</v>
+      </c>
+      <c r="E91">
+        <v>-0.3846222704136144</v>
+      </c>
+      <c r="F91">
+        <v>0.42783439642256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>565.9233121255463</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>2.975833538133858</v>
+      </c>
+      <c r="E92">
+        <v>0.0775151391147913</v>
+      </c>
+      <c r="F92">
+        <v>0.6007881151299406</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>627.5571956891329</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>2.336200540673384</v>
+      </c>
+      <c r="E93">
+        <v>-0.7039118248481773</v>
+      </c>
+      <c r="F93">
+        <v>0.5417832865841644</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94">
+        <v>586.6696741428042</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>2.000942082411731</v>
+      </c>
+      <c r="E94">
+        <v>0.5540062455599633</v>
+      </c>
+      <c r="F94">
+        <v>0.5795424835905851</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <v>609.0823612181116</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>2.322929466699435</v>
+      </c>
+      <c r="E95">
+        <v>-0.6038366381318374</v>
+      </c>
+      <c r="F95">
+        <v>0.5582167891383846</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>1147.103473103814</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>1.482632915540264</v>
+      </c>
+      <c r="E96">
+        <v>-0.5419991705775513</v>
+      </c>
+      <c r="F96">
+        <v>0.2963987190100937</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>801.4066351128084</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>1.984230359629721</v>
+      </c>
+      <c r="E97">
+        <v>-0.5165723263455957</v>
+      </c>
+      <c r="F97">
+        <v>0.4242540367190004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>506.3352902441205</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>2.468747439993447</v>
+      </c>
+      <c r="E98">
+        <v>-0.1465038991322238</v>
+      </c>
+      <c r="F98">
+        <v>0.6714918089870353</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>6</v>
+      </c>
+      <c r="B99">
+        <v>560.4745316274789</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>2.002867207340051</v>
+      </c>
+      <c r="E99">
+        <v>-0.6823121366416804</v>
+      </c>
+      <c r="F99">
+        <v>0.606628813289204</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>6</v>
+      </c>
+      <c r="B100">
+        <v>580.287125458372</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>2.16429098058491</v>
+      </c>
+      <c r="E100">
+        <v>-0.3487147974410029</v>
+      </c>
+      <c r="F100">
+        <v>0.5859168419968513</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>809.7280612454973</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>1.8766281641681</v>
+      </c>
+      <c r="E101">
+        <v>-1.432579045958293</v>
+      </c>
+      <c r="F101">
+        <v>0.4198940561316636</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>879.9009288339968</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>2.116941099369214</v>
+      </c>
+      <c r="E102">
+        <v>-0.7251715443451177</v>
+      </c>
+      <c r="F102">
+        <v>0.3864071384156305</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>774.9301453937876</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>2.043417711149341</v>
+      </c>
+      <c r="E103">
+        <v>-0.8863467464052588</v>
+      </c>
+      <c r="F103">
+        <v>0.4387492240700302</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>960.3042552682565</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>1.616613418530351</v>
+      </c>
+      <c r="E104">
+        <v>-0.7639035503853273</v>
+      </c>
+      <c r="F104">
+        <v>0.3540544552778458</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>779.4511675193494</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>2.016261161628574</v>
+      </c>
+      <c r="E105">
+        <v>-0.5198604536837057</v>
+      </c>
+      <c r="F105">
+        <v>0.436204362977697</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <v>543.9274470661667</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>2.417219628082248</v>
+      </c>
+      <c r="E106">
+        <v>-0.287755514417872</v>
+      </c>
+      <c r="F106">
+        <v>0.62508336697089</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107">
+        <v>552.5392246192448</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>1.923281723601213</v>
+      </c>
+      <c r="E107">
+        <v>0.383740294573977</v>
+      </c>
+      <c r="F107">
+        <v>0.615340929387039</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>859.1217531090072</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>1.894527729990989</v>
+      </c>
+      <c r="E108">
+        <v>-0.4631495922857665</v>
+      </c>
+      <c r="F108">
+        <v>0.3957529870121448</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>3</v>
+      </c>
+      <c r="B109">
+        <v>1173.681540228043</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>1.423732284754649</v>
+      </c>
+      <c r="E109">
+        <v>-1.026149627747104</v>
+      </c>
+      <c r="F109">
+        <v>0.2896867577332254</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>4</v>
+      </c>
+      <c r="B110">
+        <v>523.7603261681644</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>1.975178176456132</v>
+      </c>
+      <c r="E110">
+        <v>0.5301932538028571</v>
+      </c>
+      <c r="F110">
+        <v>0.6491518792334717</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>2</v>
+      </c>
+      <c r="B111">
+        <v>421.0215768619701</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>2.346358646678135</v>
+      </c>
+      <c r="E111">
+        <v>-0.8552634090410407</v>
+      </c>
+      <c r="F111">
+        <v>0.80755956151736</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>6</v>
+      </c>
+      <c r="B112">
+        <v>783.7514749190029</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>2.048414843942</v>
+      </c>
+      <c r="E112">
+        <v>-0.2434729771243559</v>
+      </c>
+      <c r="F112">
+        <v>0.4338109858550983</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>4</v>
+      </c>
+      <c r="B113">
+        <v>650.6606703467852</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>1.841484394200049</v>
+      </c>
+      <c r="E113">
+        <v>0.8015101033722214</v>
+      </c>
+      <c r="F113">
+        <v>0.5225457992086548</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>576.5752875879529</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>2.928033095764725</v>
+      </c>
+      <c r="E114">
+        <v>-1.107538490659837</v>
+      </c>
+      <c r="F114">
+        <v>0.5896888183022155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>6</v>
+      </c>
+      <c r="B115">
+        <v>669.9343623009948</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>2.194232817236012</v>
+      </c>
+      <c r="E115">
+        <v>-0.3790091995636105</v>
+      </c>
+      <c r="F115">
+        <v>0.5075124058903571</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116">
+        <v>558.88187534516</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>2.345949045629557</v>
+      </c>
+      <c r="E116">
+        <v>0.05921351440614914</v>
+      </c>
+      <c r="F116">
+        <v>0.6083575349263551</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>749.8074901547279</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>2.028590153190792</v>
+      </c>
+      <c r="E117">
+        <v>-1.398091561735202</v>
+      </c>
+      <c r="F117">
+        <v>0.4534497247151247</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>875.3979042028496</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>1.519906610960924</v>
+      </c>
+      <c r="E118">
+        <v>-0.6971168576007325</v>
+      </c>
+      <c r="F118">
+        <v>0.3883948069416605</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119">
+        <v>544.3062844369155</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>2.392643565167527</v>
+      </c>
+      <c r="E119">
+        <v>-0.8846011230207456</v>
+      </c>
+      <c r="F119">
+        <v>0.6246483087214946</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>1124.300494118314</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>1.553452936839518</v>
+      </c>
+      <c r="E120">
+        <v>-0.2742532893047464</v>
+      </c>
+      <c r="F120">
+        <v>0.3024102557800893</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>1034.022777269676</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>1.525681985745883</v>
+      </c>
+      <c r="E121">
+        <v>-0.07493778852665495</v>
+      </c>
+      <c r="F121">
+        <v>0.328812872863174</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>4</v>
+      </c>
+      <c r="B122">
+        <v>548.4112798550885</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>1.997542393708528</v>
+      </c>
+      <c r="E122">
+        <v>-0.3944102569194434</v>
+      </c>
+      <c r="F122">
+        <v>0.6199726600988972</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>3</v>
+      </c>
+      <c r="B123">
+        <v>744.4606768705128</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>1.498484476120259</v>
+      </c>
+      <c r="E123">
+        <v>0.03621623499201904</v>
+      </c>
+      <c r="F123">
+        <v>0.4567064595396187</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>562.3725876433127</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>2.588596706807569</v>
+      </c>
+      <c r="E124">
+        <v>0.2181670077359083</v>
+      </c>
+      <c r="F124">
+        <v>0.6045813886925201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>815.6373172654402</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>2.066764970918325</v>
+      </c>
+      <c r="E125">
+        <v>-2.569160775905106</v>
+      </c>
+      <c r="F125">
+        <v>0.4168519424048749</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>6</v>
+      </c>
+      <c r="B126">
+        <v>682.5440613026819</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>1.95772917178668</v>
+      </c>
+      <c r="E126">
+        <v>-0.7098323122764187</v>
+      </c>
+      <c r="F126">
+        <v>0.4981363391413688</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>869.7663023898162</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>2.08204309003031</v>
+      </c>
+      <c r="E127">
+        <v>-1.966645280583692</v>
+      </c>
+      <c r="F127">
+        <v>0.3909096030345138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>4</v>
+      </c>
+      <c r="B128">
+        <v>625.4776032540279</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>2.053289096420087</v>
+      </c>
+      <c r="E128">
+        <v>0.6346292328689254</v>
+      </c>
+      <c r="F128">
+        <v>0.5435846115530923</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>527.240132072823</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>2.547595641844843</v>
+      </c>
+      <c r="E129">
+        <v>0.362482514643845</v>
+      </c>
+      <c r="F129">
+        <v>0.6448674509341766</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>6</v>
+      </c>
+      <c r="B130">
+        <v>643.9347450885791</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>2.148398459900057</v>
+      </c>
+      <c r="E130">
+        <v>-0.6405358285637814</v>
+      </c>
+      <c r="F130">
+        <v>0.5280038118664181</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>792.1326905160623</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>2.164782501843205</v>
+      </c>
+      <c r="E131">
+        <v>-0.9701479538856661</v>
+      </c>
+      <c r="F131">
+        <v>0.4292210182343253</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132">
+        <v>755.9300238783884</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>2.634472024248382</v>
+      </c>
+      <c r="E132">
+        <v>-0.3471446711389461</v>
+      </c>
+      <c r="F132">
+        <v>0.4497770815552342</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>782.9021839226887</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>1.942451052674695</v>
+      </c>
+      <c r="E133">
+        <v>-0.985159055573364</v>
+      </c>
+      <c r="F133">
+        <v>0.4342815832962025</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>717.690260252366</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>2.112271647415418</v>
+      </c>
+      <c r="E134">
+        <v>-3.167700947740861</v>
+      </c>
+      <c r="F134">
+        <v>0.4737419731465265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>1052.777933472565</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>1.601622020152372</v>
+      </c>
+      <c r="E135">
+        <v>-0.6258054270690638</v>
+      </c>
+      <c r="F135">
+        <v>0.3229550973570631</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>488.1892365425555</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>2.876095682804948</v>
+      </c>
+      <c r="E136">
+        <v>-0.4428984381527597</v>
+      </c>
+      <c r="F136">
+        <v>0.6964512417519516</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>1061.250067646816</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>1.601048578684361</v>
+      </c>
+      <c r="E137">
+        <v>-0.5786748550857586</v>
+      </c>
+      <c r="F137">
+        <v>0.3203768935948395</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>4</v>
+      </c>
+      <c r="B138">
+        <v>542.6399075015564</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>2.039485541082985</v>
+      </c>
+      <c r="E138">
+        <v>-0.02595070822511414</v>
+      </c>
+      <c r="F138">
+        <v>0.6265665228446634</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>4</v>
+      </c>
+      <c r="B139">
+        <v>565.9370102841673</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>1.966003112967969</v>
+      </c>
+      <c r="E139">
+        <v>0.4886954798114782</v>
+      </c>
+      <c r="F139">
+        <v>0.6007735734216778</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>6</v>
+      </c>
+      <c r="B140">
+        <v>530.2737497016757</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>1.810887195871221</v>
+      </c>
+      <c r="E140">
+        <v>-0.8060087266333507</v>
+      </c>
+      <c r="F140">
+        <v>0.6411782597031799</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>2</v>
+      </c>
+      <c r="B141">
+        <v>846.5404160079703</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>2.404317195052019</v>
+      </c>
+      <c r="E141">
+        <v>-0.2903463770660176</v>
+      </c>
+      <c r="F141">
+        <v>0.4016346928872429</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142">
+        <v>664.3509660044556</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>2.509134103383305</v>
+      </c>
+      <c r="E142">
+        <v>-0.6595813286875956</v>
+      </c>
+      <c r="F142">
+        <v>0.5117776858891776</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>839.6978399584248</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>1.837224543294831</v>
+      </c>
+      <c r="E143">
+        <v>-1.354838552309353</v>
+      </c>
+      <c r="F143">
+        <v>0.4049075558141654</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>6</v>
+      </c>
+      <c r="B144">
+        <v>483.6530169740063</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>2.061071516343082</v>
+      </c>
+      <c r="E144">
+        <v>-1.011497478239881</v>
+      </c>
+      <c r="F144">
+        <v>0.7029833125558134</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <v>1057.39915056836</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>1.542025067584173</v>
+      </c>
+      <c r="E145">
+        <v>-0.8953493016444569</v>
+      </c>
+      <c r="F145">
+        <v>0.321543666662913</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>4</v>
+      </c>
+      <c r="B146">
+        <v>527.1484339646549</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>1.930654542475629</v>
+      </c>
+      <c r="E146">
+        <v>1.430591100600494</v>
+      </c>
+      <c r="F146">
+        <v>0.644979626407838</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="B147">
+        <v>651.6965140123035</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>2.406570000819202</v>
+      </c>
+      <c r="E147">
+        <v>-0.7436297592039258</v>
+      </c>
+      <c r="F147">
+        <v>0.5217152350665805</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>0</v>
+      </c>
+      <c r="B148">
+        <v>451.6393854915272</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>2.477021381174736</v>
+      </c>
+      <c r="E148">
+        <v>-0.5687849649657988</v>
+      </c>
+      <c r="F148">
+        <v>0.7528129984278761</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>486.9064980308763</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>2.59146391414762</v>
+      </c>
+      <c r="E149">
+        <v>-0.9392255565317709</v>
+      </c>
+      <c r="F149">
+        <v>0.6982860187223041</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150">
+        <v>649.7514215070595</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>2.421069877938888</v>
+      </c>
+      <c r="E150">
+        <v>-0.503572542072148</v>
+      </c>
+      <c r="F150">
+        <v>0.5232770391042629</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <v>564.8885025542787</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>2.562382239698534</v>
+      </c>
+      <c r="E151">
+        <v>-0.6988610972627525</v>
+      </c>
+      <c r="F151">
+        <v>0.6018886885865238</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>3</v>
+      </c>
+      <c r="B152">
+        <v>978.5304465889018</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>1.556975505857295</v>
+      </c>
+      <c r="E152">
+        <v>-1.010451098851928</v>
+      </c>
+      <c r="F152">
+        <v>0.3474598068820643</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>6</v>
+      </c>
+      <c r="B153">
+        <v>460.8443897698042</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>2.113336610141722</v>
+      </c>
+      <c r="E153">
+        <v>-0.1895518483092914</v>
+      </c>
+      <c r="F153">
+        <v>0.7377761507953541</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>6</v>
+      </c>
+      <c r="B154">
+        <v>547.0634898621473</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>1.937822560825756</v>
+      </c>
+      <c r="E154">
+        <v>-0.9259896931525824</v>
+      </c>
+      <c r="F154">
+        <v>0.621500075038229</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>4</v>
+      </c>
+      <c r="B155">
+        <v>588.0252865356823</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>2.192676333251413</v>
+      </c>
+      <c r="E155">
+        <v>-0.2070705794464898</v>
+      </c>
+      <c r="F155">
+        <v>0.5782064271471908</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>3</v>
+      </c>
+      <c r="B156">
+        <v>964.5825098339186</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>1.396411894814451</v>
+      </c>
+      <c r="E156">
+        <v>-1.557588768852534</v>
+      </c>
+      <c r="F156">
+        <v>0.3524841022242265</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>6</v>
+      </c>
+      <c r="B157">
+        <v>574.9921597365042</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>1.991398377979848</v>
+      </c>
+      <c r="E157">
+        <v>-0.4868157458781945</v>
+      </c>
+      <c r="F157">
+        <v>0.5913124105132291</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>4</v>
+      </c>
+      <c r="B158">
+        <v>557.0960075441579</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>2.023961661341853</v>
+      </c>
+      <c r="E158">
+        <v>0.05664840943789917</v>
+      </c>
+      <c r="F158">
+        <v>0.610307730437379</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>986.5309564296268</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>1.546448758908823</v>
+      </c>
+      <c r="E159">
+        <v>-0.6188075313018082</v>
+      </c>
+      <c r="F159">
+        <v>0.3446419980884336</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>6</v>
+      </c>
+      <c r="B160">
+        <v>686.4026875288168</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>1.676619972147129</v>
+      </c>
+      <c r="E160">
+        <v>-0.7995127998473521</v>
+      </c>
+      <c r="F160">
+        <v>0.49533605590046</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>2</v>
+      </c>
+      <c r="B161">
+        <v>589.6839657541486</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>2.36548701564676</v>
+      </c>
+      <c r="E161">
+        <v>-0.6512581042203158</v>
+      </c>
+      <c r="F161">
+        <v>0.5765800322638466</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>3</v>
+      </c>
+      <c r="B162">
+        <v>899.9414898449985</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>1.686941918571311</v>
+      </c>
+      <c r="E162">
+        <v>0.2553846870328852</v>
+      </c>
+      <c r="F162">
+        <v>0.3778023391926957</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>2</v>
+      </c>
+      <c r="B163">
+        <v>635.4944209311275</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>2.260342426476612</v>
+      </c>
+      <c r="E163">
+        <v>-0.7969324554923962</v>
+      </c>
+      <c r="F163">
+        <v>0.5350164986528622</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>2</v>
+      </c>
+      <c r="B164">
+        <v>612.0491969437668</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>2.103342344556402</v>
+      </c>
+      <c r="E164">
+        <v>1.02401593096102</v>
+      </c>
+      <c r="F164">
+        <v>0.5555108996103105</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>6</v>
+      </c>
+      <c r="B165">
+        <v>533.9869573817821</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>1.836937822560826</v>
+      </c>
+      <c r="E165">
+        <v>0.02733881430578161</v>
+      </c>
+      <c r="F165">
+        <v>0.6367196713325562</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>2</v>
+      </c>
+      <c r="B166">
+        <v>642.4427933933169</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>2.179937740640616</v>
+      </c>
+      <c r="E166">
+        <v>-0.4159190864219079</v>
+      </c>
+      <c r="F166">
+        <v>0.5292300007042726</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>3</v>
+      </c>
+      <c r="B167">
+        <v>970.91628306707</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>1.682231506512657</v>
+      </c>
+      <c r="E167">
+        <v>-0.2604074625335748</v>
+      </c>
+      <c r="F167">
+        <v>0.3501846718709455</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>3</v>
+      </c>
+      <c r="B168">
+        <v>867.9539874025836</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>1.836364381092816</v>
+      </c>
+      <c r="E168">
+        <v>-0.3787418134432431</v>
+      </c>
+      <c r="F168">
+        <v>0.3917258344736397</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>6</v>
+      </c>
+      <c r="B169">
+        <v>531.6708870050277</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>1.953182600147456</v>
+      </c>
+      <c r="E169">
+        <v>-0.331327215393051</v>
+      </c>
+      <c r="F169">
+        <v>0.6394933563416739</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <v>1056.343544130073</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>2.036413533218645</v>
+      </c>
+      <c r="E170">
+        <v>-1.118204539929017</v>
+      </c>
+      <c r="F170">
+        <v>0.3218649859596567</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>0</v>
+      </c>
+      <c r="B171">
+        <v>584.2311708469776</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>2.397681658065045</v>
+      </c>
+      <c r="E171">
+        <v>-1.243449915810651</v>
+      </c>
+      <c r="F171">
+        <v>0.5819614169286649</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>6</v>
+      </c>
+      <c r="B172">
+        <v>560.3124708753082</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>2.161505693454575</v>
+      </c>
+      <c r="E172">
+        <v>-0.5215945531749426</v>
+      </c>
+      <c r="F172">
+        <v>0.6068042702473839</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>2</v>
+      </c>
+      <c r="B173">
+        <v>495.7561170277331</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>2.422380601294339</v>
+      </c>
+      <c r="E173">
+        <v>-0.0388843394449051</v>
+      </c>
+      <c r="F173">
+        <v>0.685821088882258</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>4</v>
+      </c>
+      <c r="B174">
+        <v>507.3542441963494</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>2.05226509379864</v>
+      </c>
+      <c r="E174">
+        <v>-1.556879396414113</v>
+      </c>
+      <c r="F174">
+        <v>0.6701432064268251</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>2</v>
+      </c>
+      <c r="B175">
+        <v>639.5435381779765</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>2.570615220774965</v>
+      </c>
+      <c r="E175">
+        <v>-0.5131323272943928</v>
+      </c>
+      <c r="F175">
+        <v>0.531629169405168</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>6</v>
+      </c>
+      <c r="B176">
+        <v>514.873018834124</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>2.121569591218154</v>
+      </c>
+      <c r="E176">
+        <v>-1.14162157789592</v>
+      </c>
+      <c r="F176">
+        <v>0.6603569959247318</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>6</v>
+      </c>
+      <c r="B177">
+        <v>619.4799229145024</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>2.061563037601376</v>
+      </c>
+      <c r="E177">
+        <v>0.1868293487619064</v>
+      </c>
+      <c r="F177">
+        <v>0.5488474887134077</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>4</v>
+      </c>
+      <c r="B178">
+        <v>590.760431590999</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>1.943024494142705</v>
+      </c>
+      <c r="E178">
+        <v>0.3599931536820825</v>
+      </c>
+      <c r="F178">
+        <v>0.575529405522867</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>4</v>
+      </c>
+      <c r="B179">
+        <v>575.7377848602802</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>1.894077168837552</v>
+      </c>
+      <c r="E179">
+        <v>0.4725582752606213</v>
+      </c>
+      <c r="F179">
+        <v>0.5905466150402324</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>3</v>
+      </c>
+      <c r="B180">
+        <v>1100.900188592427</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>1.563037601376259</v>
+      </c>
+      <c r="E180">
+        <v>-0.6394662316494779</v>
+      </c>
+      <c r="F180">
+        <v>0.3088381703655736</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>6</v>
+      </c>
+      <c r="B181">
+        <v>713.0589534922684</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>1.934422872122553</v>
+      </c>
+      <c r="E181">
+        <v>-0.277214958684044</v>
+      </c>
+      <c r="F181">
+        <v>0.4768189198590388</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>3</v>
+      </c>
+      <c r="B182">
+        <v>1038.371630572556</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>1.86913246497911</v>
+      </c>
+      <c r="E182">
+        <v>-0.3784719409268905</v>
+      </c>
+      <c r="F182">
+        <v>0.3274357561295513</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>0</v>
+      </c>
+      <c r="B183">
+        <v>773.1619245478522</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>1.959941017449005</v>
+      </c>
+      <c r="E183">
+        <v>-0.7423146538744965</v>
+      </c>
+      <c r="F183">
+        <v>0.4397526432756413</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>0</v>
+      </c>
+      <c r="B184">
+        <v>854.6726730608069</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>2.104571147702138</v>
+      </c>
+      <c r="E184">
+        <v>0.1172734087592198</v>
+      </c>
+      <c r="F184">
+        <v>0.3978131169004981</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>4</v>
+      </c>
+      <c r="B185">
+        <v>514.6759672901024</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>2.086753502088965</v>
+      </c>
+      <c r="E185">
+        <v>-0.7475984732412317</v>
+      </c>
+      <c r="F185">
+        <v>0.6606098236725234</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
+        <v>2</v>
+      </c>
+      <c r="B186">
+        <v>577.1638994399334</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>2.345744245105267</v>
+      </c>
+      <c r="E186">
+        <v>-0.4676081358585497</v>
+      </c>
+      <c r="F186">
+        <v>0.589087433101634</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187">
+        <v>0</v>
+      </c>
+      <c r="B187">
+        <v>934.7175694617262</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>1.979110346522487</v>
+      </c>
+      <c r="E187">
+        <v>-1.050886616672952</v>
+      </c>
+      <c r="F187">
+        <v>0.3637462385518174</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188">
+        <v>3</v>
+      </c>
+      <c r="B188">
+        <v>921.1740970918679</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>1.556197263864995</v>
+      </c>
+      <c r="E188">
+        <v>-0.5562781363274087</v>
+      </c>
+      <c r="F188">
+        <v>0.3690941821674911</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>2</v>
+      </c>
+      <c r="B189">
+        <v>746.8526258847769</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>2.694068976816581</v>
+      </c>
+      <c r="E189">
+        <v>-0.6737603013954283</v>
+      </c>
+      <c r="F189">
+        <v>0.4552437632487545</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>2</v>
+      </c>
+      <c r="B190">
+        <v>636.3052241293958</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>2.402719750962563</v>
+      </c>
+      <c r="E190">
+        <v>-0.5595450640067692</v>
+      </c>
+      <c r="F190">
+        <v>0.5343347612227985</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>3</v>
+      </c>
+      <c r="B191">
+        <v>847.938061706692</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>1.595723765052839</v>
+      </c>
+      <c r="E191">
+        <v>-0.2242136561466819</v>
+      </c>
+      <c r="F191">
+        <v>0.400972683447731</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
+        <v>0</v>
+      </c>
+      <c r="B192">
+        <v>454.1009285497476</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>2.87683296469239</v>
+      </c>
+      <c r="E192">
+        <v>-1.1705296765441</v>
+      </c>
+      <c r="F192">
+        <v>0.7487322280662378</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193">
+        <v>980.536522356524</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>1.395224051773573</v>
+      </c>
+      <c r="E193">
+        <v>0.7843989222155134</v>
+      </c>
+      <c r="F193">
+        <v>0.3467489402463845</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>3</v>
+      </c>
+      <c r="B194">
+        <v>971.1918341636124</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>1.729950028672073</v>
+      </c>
+      <c r="E194">
+        <v>-0.6128170264288697</v>
+      </c>
+      <c r="F194">
+        <v>0.3500853158354724</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>1</v>
+      </c>
+      <c r="B195">
+        <v>1154.966048658675</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>1.612066846891128</v>
+      </c>
+      <c r="E195">
+        <v>-1.436016343128015</v>
+      </c>
+      <c r="F195">
+        <v>0.2943809477299012</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>2</v>
+      </c>
+      <c r="B196">
+        <v>760.1040118631072</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>2.27287621856312</v>
+      </c>
+      <c r="E196">
+        <v>0.7420812635036032</v>
+      </c>
+      <c r="F196">
+        <v>0.4473072036110147</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>2</v>
+      </c>
+      <c r="B197">
+        <v>742.9341718167074</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>2.535635291226345</v>
+      </c>
+      <c r="E197">
+        <v>-0.9641664749476229</v>
+      </c>
+      <c r="F197">
+        <v>0.4576448532022604</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>0</v>
+      </c>
+      <c r="B198">
+        <v>564.5555846249549</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>2.569591218153518</v>
+      </c>
+      <c r="E198">
+        <v>-0.08885804557733062</v>
+      </c>
+      <c r="F198">
+        <v>0.6022436218142604</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>0</v>
+      </c>
+      <c r="B199">
+        <v>821.3140658052349</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>1.980298189563365</v>
+      </c>
+      <c r="E199">
+        <v>-0.4211317491038722</v>
+      </c>
+      <c r="F199">
+        <v>0.4139707502350594</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200">
+        <v>893.7252948844642</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>1.592283116244778</v>
+      </c>
+      <c r="E200">
+        <v>0.1378197515938894</v>
+      </c>
+      <c r="F200">
+        <v>0.3804300963015188</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201">
+        <v>941.0859799715141</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>1.681821905464078</v>
+      </c>
+      <c r="E201">
+        <v>-1.622306725380944</v>
+      </c>
+      <c r="F201">
+        <v>0.361284736183501</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202">
+        <v>551.8021627785041</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>2.413287458015893</v>
+      </c>
+      <c r="E202">
+        <v>-0.5981182336481381</v>
+      </c>
+      <c r="F202">
+        <v>0.6161628622258183</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203">
+        <v>2</v>
+      </c>
+      <c r="B203">
+        <v>663.1204330004989</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>2.409191447530106</v>
+      </c>
+      <c r="E203">
+        <v>-0.3485703342583337</v>
+      </c>
+      <c r="F203">
+        <v>0.51272737662684</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204">
+        <v>0</v>
+      </c>
+      <c r="B204">
+        <v>856.3916722618125</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>2.001966085033178</v>
+      </c>
+      <c r="E204">
+        <v>-0.7229425232307345</v>
+      </c>
+      <c r="F204">
+        <v>0.3970146032621119</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205">
+        <v>916.5973274403677</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>1.427418694191857</v>
+      </c>
+      <c r="E205">
+        <v>0.9535461581067433</v>
+      </c>
+      <c r="F205">
+        <v>0.3709371496308665</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206">
+        <v>6</v>
+      </c>
+      <c r="B206">
+        <v>587.3502880801178</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>2.032399442942574</v>
+      </c>
+      <c r="E206">
+        <v>-1.018429132447311</v>
+      </c>
+      <c r="F206">
+        <v>0.5788709172363973</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207">
+        <v>0</v>
+      </c>
+      <c r="B207">
+        <v>689.3911462571197</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>2.048291963627427</v>
+      </c>
+      <c r="E207">
+        <v>-0.4002633780411247</v>
+      </c>
+      <c r="F207">
+        <v>0.4931888113822562</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208">
+        <v>6</v>
+      </c>
+      <c r="B208">
+        <v>601.2838055369341</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>2.135905627918408</v>
+      </c>
+      <c r="E208">
+        <v>0.5150922351835234</v>
+      </c>
+      <c r="F208">
+        <v>0.5654567724410721</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209">
+        <v>0</v>
+      </c>
+      <c r="B209">
+        <v>677.6430178423741</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>2.406733841238633</v>
+      </c>
+      <c r="E209">
+        <v>0.006537588053846244</v>
+      </c>
+      <c r="F209">
+        <v>0.5017391031085442</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210">
+        <v>3</v>
+      </c>
+      <c r="B210">
+        <v>842.7980454752143</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>1.689686245596789</v>
+      </c>
+      <c r="E210">
+        <v>-0.05229117177543391</v>
+      </c>
+      <c r="F210">
+        <v>0.4034181163866961</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="B211">
+        <v>1024.40841043603</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>1.539034979929549</v>
+      </c>
+      <c r="E211">
+        <v>-0.5305939764690391</v>
+      </c>
+      <c r="F211">
+        <v>0.3318988760110648</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212">
+        <v>4</v>
+      </c>
+      <c r="B212">
+        <v>610.8098662515705</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>2.159416728106824</v>
+      </c>
+      <c r="E212">
+        <v>-0.1058483477365058</v>
+      </c>
+      <c r="F212">
+        <v>0.5566380289279189</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213">
+        <v>6</v>
+      </c>
+      <c r="B213">
+        <v>674.3936839941034</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>2.0580404685836</v>
+      </c>
+      <c r="E213">
+        <v>1.329319374796952</v>
+      </c>
+      <c r="F213">
+        <v>0.5041565602844121</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="B214">
+        <v>832.5984211555599</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>1.534037847136889</v>
+      </c>
+      <c r="E214">
+        <v>-0.2471974204003778</v>
+      </c>
+      <c r="F214">
+        <v>0.4083601305994736</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215">
+        <v>4</v>
+      </c>
+      <c r="B215">
+        <v>442.1619826870627</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>1.87412959777177</v>
+      </c>
+      <c r="E215">
+        <v>-0.9509798925530839</v>
+      </c>
+      <c r="F215">
+        <v>0.7689489673756796</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216">
+        <v>6</v>
+      </c>
+      <c r="B216">
+        <v>673.6375001068983</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>2.010608667158188</v>
+      </c>
+      <c r="E216">
+        <v>-0.9023492727865652</v>
+      </c>
+      <c r="F216">
+        <v>0.504722495327303</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217">
+        <v>3</v>
+      </c>
+      <c r="B217">
+        <v>649.7401791600419</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>1.605185549275006</v>
+      </c>
+      <c r="E217">
+        <v>-1.13043751668005</v>
+      </c>
+      <c r="F217">
+        <v>0.5232860932804532</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218">
+        <v>3</v>
+      </c>
+      <c r="B218">
+        <v>855.4229724002096</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>1.58359957401491</v>
+      </c>
+      <c r="E218">
+        <v>-0.7591835705730714</v>
+      </c>
+      <c r="F218">
+        <v>0.3974641913648901</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219">
+        <v>0</v>
+      </c>
+      <c r="B219">
+        <v>460.1210428528584</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>2.430654542475629</v>
+      </c>
+      <c r="E219">
+        <v>-1.251681246436571</v>
+      </c>
+      <c r="F219">
+        <v>0.7389359936505409</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220">
+        <v>0</v>
+      </c>
+      <c r="B220">
+        <v>809.8219784949429</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>1.982059474072254</v>
+      </c>
+      <c r="E220">
+        <v>-0.7143998510874161</v>
+      </c>
+      <c r="F220">
+        <v>0.4198453598800705</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221">
+        <v>3</v>
+      </c>
+      <c r="B221">
+        <v>985.3640845496795</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>1.663553698697469</v>
+      </c>
+      <c r="E221">
+        <v>-0.664931199318741</v>
+      </c>
+      <c r="F221">
+        <v>0.3450501244475367</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222">
+        <v>4</v>
+      </c>
+      <c r="B222">
+        <v>564.2227403014025</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>2.084828377160646</v>
+      </c>
+      <c r="E222">
+        <v>-0.5219821118801629</v>
+      </c>
+      <c r="F222">
+        <v>0.6025988952844672</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223">
+        <v>0</v>
+      </c>
+      <c r="B223">
+        <v>909.5084923169217</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1.988531170639797</v>
+      </c>
+      <c r="E223">
+        <v>-0.5660404299677104</v>
+      </c>
+      <c r="F223">
+        <v>0.3738282851365897</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224">
+        <v>3</v>
+      </c>
+      <c r="B224">
+        <v>885.0873604861803</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1.308306709265176</v>
+      </c>
+      <c r="E224">
+        <v>-1.87493288185238</v>
+      </c>
+      <c r="F224">
+        <v>0.384142871290397</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225">
+        <v>0</v>
+      </c>
+      <c r="B225">
+        <v>389.1494678395765</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>2.746907512083231</v>
+      </c>
+      <c r="E225">
+        <v>0.4105505350585901</v>
+      </c>
+      <c r="F225">
+        <v>0.873700282535558</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226">
+        <v>4</v>
+      </c>
+      <c r="B226">
+        <v>567.0044760752788</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1.742360940444007</v>
+      </c>
+      <c r="E226">
+        <v>0.8905128454789402</v>
+      </c>
+      <c r="F226">
+        <v>0.5996425325482961</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227">
+        <v>0</v>
+      </c>
+      <c r="B227">
+        <v>917.2700745239099</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>2.08704022282297</v>
+      </c>
+      <c r="E227">
+        <v>-0.3148073901189281</v>
+      </c>
+      <c r="F227">
+        <v>0.3706650957478036</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228">
+        <v>4</v>
+      </c>
+      <c r="B228">
+        <v>560.4531018494513</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1.890390759400344</v>
+      </c>
+      <c r="E228">
+        <v>0.07171741549718597</v>
+      </c>
+      <c r="F228">
+        <v>0.6066520086658931</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229">
+        <v>0</v>
+      </c>
+      <c r="B229">
+        <v>493.4271544394809</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>2.480502990087655</v>
+      </c>
+      <c r="E229">
+        <v>0.1654965005232762</v>
+      </c>
+      <c r="F229">
+        <v>0.6890581455457803</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230">
+        <v>3</v>
+      </c>
+      <c r="B230">
+        <v>837.8525049496975</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1.727123781436881</v>
+      </c>
+      <c r="E230">
+        <v>-0.7001497622347226</v>
+      </c>
+      <c r="F230">
+        <v>0.4057993477269758</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231">
+        <v>6</v>
+      </c>
+      <c r="B231">
+        <v>513.662712277031</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>2.164659621528631</v>
+      </c>
+      <c r="E231">
+        <v>-0.4778148981225053</v>
+      </c>
+      <c r="F231">
+        <v>0.6619129476866321</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232">
+        <v>3</v>
+      </c>
+      <c r="B232">
+        <v>889.3875596631501</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1.480257229458507</v>
+      </c>
+      <c r="E232">
+        <v>-0.9665729860697303</v>
+      </c>
+      <c r="F232">
+        <v>0.382285536047719</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233">
+        <v>0</v>
+      </c>
+      <c r="B233">
+        <v>467.7218229551411</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>2.48828541001065</v>
+      </c>
+      <c r="E233">
+        <v>0.5348342600046707</v>
+      </c>
+      <c r="F233">
+        <v>0.7269278090379143</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234">
+        <v>2</v>
+      </c>
+      <c r="B234">
+        <v>565.8435168011247</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>2.475792578029</v>
+      </c>
+      <c r="E234">
+        <v>-1.016960475484255</v>
+      </c>
+      <c r="F234">
+        <v>0.6008728383460453</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235">
+        <v>0</v>
+      </c>
+      <c r="B235">
+        <v>721.8447798770612</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>2.056893585647579</v>
+      </c>
+      <c r="E235">
+        <v>-1.11561904931965</v>
+      </c>
+      <c r="F235">
+        <v>0.4710153892889633</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236">
+        <v>0</v>
+      </c>
+      <c r="B236">
+        <v>713.8540521619035</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>2.067993774064062</v>
+      </c>
+      <c r="E236">
+        <v>-1.187823135706653</v>
+      </c>
+      <c r="F236">
+        <v>0.4762878335849067</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237">
+        <v>3</v>
+      </c>
+      <c r="B237">
+        <v>934.982339209806</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>1.709101335299418</v>
+      </c>
+      <c r="E237">
+        <v>-0.8418455743093747</v>
+      </c>
+      <c r="F237">
+        <v>0.3636432323281621</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238">
+        <v>0</v>
+      </c>
+      <c r="B238">
+        <v>464.1688535441499</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>2.562382239698534</v>
+      </c>
+      <c r="E238">
+        <v>-1.117653410603645</v>
+      </c>
+      <c r="F238">
+        <v>0.7324920606023828</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="B239">
+        <v>765.1367108871406</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>1.326574916031785</v>
+      </c>
+      <c r="E239">
+        <v>-0.6286683348554922</v>
+      </c>
+      <c r="F239">
+        <v>0.4443650332837719</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240">
+        <v>0</v>
+      </c>
+      <c r="B240">
+        <v>578.2715080749921</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>2.709142295404276</v>
+      </c>
+      <c r="E240">
+        <v>-0.1378716899809058</v>
+      </c>
+      <c r="F240">
+        <v>0.5879591078796635</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="B241">
+        <v>897.6670749291612</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>1.69042352748423</v>
+      </c>
+      <c r="E241">
+        <v>-0.337825295368094</v>
+      </c>
+      <c r="F241">
+        <v>0.378759575232088</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242">
+        <v>2</v>
+      </c>
+      <c r="B242">
+        <v>547.7040994612773</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>2.389940198246908</v>
+      </c>
+      <c r="E242">
+        <v>-0.8182705135916264</v>
+      </c>
+      <c r="F242">
+        <v>0.6207731516605857</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243">
+        <v>3</v>
+      </c>
+      <c r="B243">
+        <v>919.0065776219684</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>1.683419349553535</v>
+      </c>
+      <c r="E243">
+        <v>-0.08182792180186399</v>
+      </c>
+      <c r="F243">
+        <v>0.3699647078476715</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244">
+        <v>0</v>
+      </c>
+      <c r="B244">
+        <v>513.5298208807533</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>2.379577291717867</v>
+      </c>
+      <c r="E244">
+        <v>-0.8481657558092195</v>
+      </c>
+      <c r="F244">
+        <v>0.6620842377115844</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245">
+        <v>3</v>
+      </c>
+      <c r="B245">
+        <v>893.7378962767948</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>1.803309576472516</v>
+      </c>
+      <c r="E245">
+        <v>-0.5036106851493878</v>
+      </c>
+      <c r="F245">
+        <v>0.3804247323699704</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246">
+        <v>3</v>
+      </c>
+      <c r="B246">
+        <v>806.3040456260105</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>1.694437617760302</v>
+      </c>
+      <c r="E246">
+        <v>-0.4353027343068838</v>
+      </c>
+      <c r="F246">
+        <v>0.42167715993044</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247">
+        <v>0</v>
+      </c>
+      <c r="B247">
+        <v>542.9437942689163</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>2.615548455804047</v>
+      </c>
+      <c r="E247">
+        <v>-0.2733770688719621</v>
+      </c>
+      <c r="F247">
+        <v>0.6262158322627412</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248">
+        <v>0</v>
+      </c>
+      <c r="B248">
+        <v>713.9452240005082</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>2.230892111083804</v>
+      </c>
+      <c r="E248">
+        <v>-1.468680646056858</v>
+      </c>
+      <c r="F248">
+        <v>0.4762270109390885</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249">
+        <v>0</v>
+      </c>
+      <c r="B249">
+        <v>587.8423667108979</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>2.424182845908085</v>
+      </c>
+      <c r="E249">
+        <v>-0.08867257464995165</v>
+      </c>
+      <c r="F249">
+        <v>0.5783863485416537</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250">
+        <v>4</v>
+      </c>
+      <c r="B250">
+        <v>549.6318966431414</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>2.053821577783239</v>
+      </c>
+      <c r="E250">
+        <v>-0.5385884376159309</v>
+      </c>
+      <c r="F250">
+        <v>0.618595831276421</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251">
+        <v>0</v>
+      </c>
+      <c r="B251">
+        <v>805.2767531597802</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>2.076595396084214</v>
+      </c>
+      <c r="E251">
+        <v>4.621281003965559</v>
+      </c>
+      <c r="F251">
+        <v>0.4222150939610427</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252">
+        <v>2</v>
+      </c>
+      <c r="B252">
+        <v>725.1547150947179</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>2.220447284345048</v>
+      </c>
+      <c r="E252">
+        <v>1.027243684182986</v>
+      </c>
+      <c r="F252">
+        <v>0.4688654612906848</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253">
+        <v>3</v>
+      </c>
+      <c r="B253">
+        <v>850.7866795975882</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>1.604694028016712</v>
+      </c>
+      <c r="E253">
+        <v>0.1288053690150919</v>
+      </c>
+      <c r="F253">
+        <v>0.3996301401437266</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254">
+        <v>2</v>
+      </c>
+      <c r="B254">
+        <v>564.7618651363732</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>2.497378553289097</v>
+      </c>
+      <c r="E254">
+        <v>-0.5512813678655106</v>
+      </c>
+      <c r="F254">
+        <v>0.6020236510089082</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255">
+        <v>6</v>
+      </c>
+      <c r="B255">
+        <v>733.6673447703688</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>2.0330548046203</v>
+      </c>
+      <c r="E255">
+        <v>-0.4416728314269345</v>
+      </c>
+      <c r="F255">
+        <v>0.4634252872552436</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256">
+        <v>2</v>
+      </c>
+      <c r="B256">
+        <v>656.6320567325192</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>2.443147374457279</v>
+      </c>
+      <c r="E256">
+        <v>-0.9603853524852068</v>
+      </c>
+      <c r="F256">
+        <v>0.5177937880338667</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257">
+        <v>4</v>
+      </c>
+      <c r="B257">
+        <v>615.1151253563995</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>1.956746129270091</v>
+      </c>
+      <c r="E257">
+        <v>-0.2398813399739069</v>
+      </c>
+      <c r="F257">
+        <v>0.5527420575180996</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258">
+        <v>4</v>
+      </c>
+      <c r="B258">
+        <v>597.7326433422453</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>1.978905545998198</v>
+      </c>
+      <c r="E258">
+        <v>0.8514079031079762</v>
+      </c>
+      <c r="F258">
+        <v>0.5688161819285572</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259">
+        <v>3</v>
+      </c>
+      <c r="B259">
+        <v>919.5099379640769</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>1.577742279020234</v>
+      </c>
+      <c r="E259">
+        <v>-0.4543540364217017</v>
+      </c>
+      <c r="F259">
+        <v>0.3697621808773566</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260">
+        <v>0</v>
+      </c>
+      <c r="B260">
+        <v>805.8649073891834</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>1.895510772507578</v>
+      </c>
+      <c r="E260">
+        <v>-1.951915141615248</v>
+      </c>
+      <c r="F260">
+        <v>0.4219069435614484</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261">
+        <v>921.7708495677047</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>1.695830261325469</v>
+      </c>
+      <c r="E261">
+        <v>-0.5523233063426274</v>
+      </c>
+      <c r="F261">
+        <v>0.3688552313836507</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262">
+        <v>4</v>
+      </c>
+      <c r="B262">
+        <v>619.8159563356038</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>2.01921028917834</v>
+      </c>
+      <c r="E262">
+        <v>-0.8567582835262797</v>
+      </c>
+      <c r="F262">
+        <v>0.5485499308699703</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263">
+        <v>6</v>
+      </c>
+      <c r="B263">
+        <v>632.5329072493957</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>1.983042516588843</v>
+      </c>
+      <c r="E263">
+        <v>-0.2906411285569128</v>
+      </c>
+      <c r="F263">
+        <v>0.5375214413405126</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264">
+        <v>2</v>
+      </c>
+      <c r="B264">
+        <v>591.5152160476192</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>2.533587285983452</v>
+      </c>
+      <c r="E264">
+        <v>0.2058427923521987</v>
+      </c>
+      <c r="F264">
+        <v>0.57479501925886</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265">
+        <v>2</v>
+      </c>
+      <c r="B265">
+        <v>612.9383617092478</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>2.449741951339395</v>
+      </c>
+      <c r="E265">
+        <v>0.1369149966963459</v>
+      </c>
+      <c r="F265">
+        <v>0.5547050425296789</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266">
+        <v>4</v>
+      </c>
+      <c r="B266">
+        <v>604.7267759999021</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>1.769681330384206</v>
+      </c>
+      <c r="E266">
+        <v>-0.4073245341900921</v>
+      </c>
+      <c r="F266">
+        <v>0.5622373830525657</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267">
+        <v>6</v>
+      </c>
+      <c r="B267">
+        <v>713.7231388439748</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>2.217375276480708</v>
+      </c>
+      <c r="E267">
+        <v>0.6578710501763507</v>
+      </c>
+      <c r="F267">
+        <v>0.4763751957806801</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="B268">
+        <v>874.9165200935257</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>1.539690341607274</v>
+      </c>
+      <c r="E268">
+        <v>-0.9534907649038864</v>
+      </c>
+      <c r="F268">
+        <v>0.3886085040017934</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="B269">
+        <v>1060.280267016904</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>1.606864913574179</v>
+      </c>
+      <c r="E269">
+        <v>-0.2387895638929645</v>
+      </c>
+      <c r="F269">
+        <v>0.3206699309387218</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270">
+        <v>3</v>
+      </c>
+      <c r="B270">
+        <v>952.9947569510027</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>1.656713361186205</v>
+      </c>
+      <c r="E270">
+        <v>-0.6622380630856126</v>
+      </c>
+      <c r="F270">
+        <v>0.3567700635497628</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271">
+        <v>0</v>
+      </c>
+      <c r="B271">
+        <v>556.013121521696</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>2.54784140247399</v>
+      </c>
+      <c r="E271">
+        <v>-0.3787155070291728</v>
+      </c>
+      <c r="F271">
+        <v>0.6114963601389269</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272">
+        <v>6</v>
+      </c>
+      <c r="B272">
+        <v>637.2883753729527</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>1.860735643483247</v>
+      </c>
+      <c r="E272">
+        <v>0.02000621578068223</v>
+      </c>
+      <c r="F272">
+        <v>0.5335104375645104</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273">
+        <v>1</v>
+      </c>
+      <c r="B273">
+        <v>1118.468645613703</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>1.623822396985336</v>
+      </c>
+      <c r="E273">
+        <v>-0.8122040019838999</v>
+      </c>
+      <c r="F273">
+        <v>0.3039870642180071</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274">
+        <v>0</v>
+      </c>
+      <c r="B274">
+        <v>462.2264353168834</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>2.984803801097731</v>
+      </c>
+      <c r="E274">
+        <v>-1.584441623200679</v>
+      </c>
+      <c r="F274">
+        <v>0.7355702184512879</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275">
+        <v>2</v>
+      </c>
+      <c r="B275">
+        <v>609.0342906527831</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>2.400794626034243</v>
+      </c>
+      <c r="E275">
+        <v>-0.5038336782485551</v>
+      </c>
+      <c r="F275">
+        <v>0.5582608487209756</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276">
+        <v>1</v>
+      </c>
+      <c r="B276">
+        <v>940.6765535388514</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="E276">
+        <v>0.4284890480694741</v>
+      </c>
+      <c r="F276">
+        <v>0.3614419841984054</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277">
+        <v>1</v>
+      </c>
+      <c r="B277">
+        <v>1087.638076299539</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>1.592119275825346</v>
+      </c>
+      <c r="E277">
+        <v>-0.7131213018688642</v>
+      </c>
+      <c r="F277">
+        <v>0.3126039878603542</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278">
+        <v>4</v>
+      </c>
+      <c r="B278">
+        <v>449.6823463922545</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>2.011632669779635</v>
+      </c>
+      <c r="E278">
+        <v>0.3517771282899786</v>
+      </c>
+      <c r="F278">
+        <v>0.7560892766366696</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279">
+        <v>4</v>
+      </c>
+      <c r="B279">
+        <v>486.9733606086377</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>2.085237978209224</v>
+      </c>
+      <c r="E279">
+        <v>0.1054505082586517</v>
+      </c>
+      <c r="F279">
+        <v>0.6981901424239206</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280">
+        <v>0</v>
+      </c>
+      <c r="B280">
+        <v>762.3886953051151</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>1.968501679364299</v>
+      </c>
+      <c r="E280">
+        <v>-0.8227335905507271</v>
+      </c>
+      <c r="F280">
+        <v>0.4459667386121574</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281">
+        <v>3</v>
+      </c>
+      <c r="B281">
+        <v>922.5263442453355</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>1.674940607847956</v>
+      </c>
+      <c r="E281">
+        <v>-1.488551426290482</v>
+      </c>
+      <c r="F281">
+        <v>0.368553160699312</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282">
+        <v>4</v>
+      </c>
+      <c r="B282">
+        <v>558.7969026864588</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>1.791840747112313</v>
+      </c>
+      <c r="E282">
+        <v>0.09616628193151716</v>
+      </c>
+      <c r="F282">
+        <v>0.6084500439523269</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283">
+        <v>1</v>
+      </c>
+      <c r="B283">
+        <v>943.3802961480228</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>1.395183091668715</v>
+      </c>
+      <c r="E283">
+        <v>-1.243331544625117</v>
+      </c>
+      <c r="F283">
+        <v>0.3604060858471139</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284">
+        <v>1</v>
+      </c>
+      <c r="B284">
+        <v>1187.005474574238</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>1.644957811091996</v>
+      </c>
+      <c r="E284">
+        <v>-0.6009427563183525</v>
+      </c>
+      <c r="F284">
+        <v>0.2864350732012868</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285">
+        <v>0</v>
+      </c>
+      <c r="B285">
+        <v>446.8752407082048</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>2.696157942164332</v>
+      </c>
+      <c r="E285">
+        <v>-0.2673096233936549</v>
+      </c>
+      <c r="F285">
+        <v>0.7608387510150939</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286">
+        <v>0</v>
+      </c>
+      <c r="B286">
+        <v>702.8635023242371</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>1.863234209879577</v>
+      </c>
+      <c r="E286">
+        <v>0.3466472884783062</v>
+      </c>
+      <c r="F286">
+        <v>0.4837354605491452</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287">
+        <v>4</v>
+      </c>
+      <c r="B287">
+        <v>675.8131197602731</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>2.037929057098386</v>
+      </c>
+      <c r="E287">
+        <v>1.164756977745525</v>
+      </c>
+      <c r="F287">
+        <v>0.5030976612596778</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288">
+        <v>6</v>
+      </c>
+      <c r="B288">
+        <v>507.3482449315441</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>1.735807323666749</v>
+      </c>
+      <c r="E288">
+        <v>-0.6551471235262971</v>
+      </c>
+      <c r="F288">
+        <v>0.6701511307009168</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289">
+        <v>6</v>
+      </c>
+      <c r="B289">
+        <v>465.0247970931083</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>2.294257393298927</v>
+      </c>
+      <c r="E289">
+        <v>-1.06395757003783</v>
+      </c>
+      <c r="F289">
+        <v>0.731143805933266</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290">
+        <v>3</v>
+      </c>
+      <c r="B290">
+        <v>875.3834395660659</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>1.297861882526419</v>
+      </c>
+      <c r="E290">
+        <v>-1.935182152400413</v>
+      </c>
+      <c r="F290">
+        <v>0.3884012246890808</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291">
+        <v>4</v>
+      </c>
+      <c r="B291">
+        <v>739.4482823705623</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+      <c r="D291">
+        <v>2.092610797083641</v>
+      </c>
+      <c r="E291">
+        <v>-0.6663948519732208</v>
+      </c>
+      <c r="F291">
+        <v>0.4598022716477345</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292">
+        <v>4</v>
+      </c>
+      <c r="B292">
+        <v>603.1604717332074</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>1.820348980093389</v>
+      </c>
+      <c r="E292">
+        <v>0.04225821451196482</v>
+      </c>
+      <c r="F292">
+        <v>0.5636974170787344</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293">
+        <v>6</v>
+      </c>
+      <c r="B293">
+        <v>593.6018013541703</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+      <c r="D293">
+        <v>2.055296141558122</v>
+      </c>
+      <c r="E293">
+        <v>1.384544790688635</v>
+      </c>
+      <c r="F293">
+        <v>0.5727745421667618</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294">
+        <v>1</v>
+      </c>
+      <c r="B294">
+        <v>1000.882160771539</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>1.690013926435652</v>
+      </c>
+      <c r="E294">
+        <v>0.09350038039305064</v>
+      </c>
+      <c r="F294">
+        <v>0.3397003296950641</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295">
+        <v>1</v>
+      </c>
+      <c r="B295">
+        <v>970.5381769459649</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>1.486237404767756</v>
+      </c>
+      <c r="E295">
+        <v>-1.148078217912791</v>
+      </c>
+      <c r="F295">
+        <v>0.3503210982074841</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296">
+        <v>2</v>
+      </c>
+      <c r="B296">
+        <v>526.570682965344</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+      <c r="D296">
+        <v>2.395510772507578</v>
+      </c>
+      <c r="E296">
+        <v>-1.081602993138594</v>
+      </c>
+      <c r="F296">
+        <v>0.6456872951705459</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297">
+        <v>0</v>
+      </c>
+      <c r="B297">
+        <v>855.2152992871415</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>1.921397558777751</v>
+      </c>
+      <c r="E297">
+        <v>-1.428140195474044</v>
+      </c>
+      <c r="F297">
+        <v>0.3975607081437909</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298">
+        <v>0</v>
+      </c>
+      <c r="B298">
+        <v>925.4912675525304</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <v>2.325837634144343</v>
+      </c>
+      <c r="E298">
+        <v>-1.434565761868534</v>
+      </c>
+      <c r="F298">
+        <v>0.3673724560353043</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299">
+        <v>4</v>
+      </c>
+      <c r="B299">
+        <v>640.9542010435223</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <v>2.151265667240108</v>
+      </c>
+      <c r="E299">
+        <v>-0.089857593056477</v>
+      </c>
+      <c r="F299">
+        <v>0.5304591177442227</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300">
+        <v>3</v>
+      </c>
+      <c r="B300">
+        <v>779.0558840370969</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <v>1.601130498894077</v>
+      </c>
+      <c r="E300">
+        <v>-0.8753626492429658</v>
+      </c>
+      <c r="F300">
+        <v>0.4364256877672333</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301">
+        <v>0</v>
+      </c>
+      <c r="B301">
+        <v>416.9210978252553</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>2.777914311460637</v>
+      </c>
+      <c r="E301">
+        <v>-0.7825028599632293</v>
+      </c>
+      <c r="F301">
+        <v>0.8155020260992036</v>
       </c>
     </row>
   </sheetData>
